--- a/CASUAL/LA ONT/GARCIA, JOAN BAYBAY.xlsx
+++ b/CASUAL/LA ONT/GARCIA, JOAN BAYBAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>11/22-24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2317,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2658,12 +2664,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,7 +2834,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.5</v>
+        <v>32.99</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2838,7 +2844,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3313,11 +3319,15 @@
       <c r="A33" s="40">
         <v>44682</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
@@ -3732,15 +3742,17 @@
       <c r="B53" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39">
         <v>3</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -3750,15 +3762,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45261</v>
+      </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -3766,7 +3782,9 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -3782,8 +3800,12 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
@@ -3795,10 +3817,14 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="49">
+        <v>45309</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="40">
+        <v>45323</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -3814,7 +3840,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>45352</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -3830,7 +3858,9 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>45383</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -3846,7 +3876,9 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45413</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -3862,7 +3894,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>45444</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -3878,7 +3912,9 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45474</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3894,7 +3930,9 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45505</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -3910,7 +3948,9 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45536</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -3926,7 +3966,9 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45566</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -3942,7 +3984,9 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45597</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -3958,7 +4002,9 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>45627</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -5014,20 +5060,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5074,7 +5136,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,10 +5200,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>5</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/GARCIA, JOAN BAYBAY.xlsx
+++ b/CASUAL/LA ONT/GARCIA, JOAN BAYBAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +959,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1020,7 +1023,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1083,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,7 +1149,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1209,7 +1212,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1310,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1369,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1434,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1477,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1552,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1738,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1804,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1862,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1928,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1984,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2059,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2102,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2168,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2224,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2672,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2837,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.99</v>
+        <v>30.990000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3475,11 +3478,15 @@
       <c r="A40" s="40">
         <v>44896</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>2</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
